--- a/заказы/статистика филиалы/2023/12,23/26,12,23 КИ/дв 26,12,23 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/26,12,23 КИ/дв 26,12,23 лгрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,12,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\26,12,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03B3F45-CBF7-4966-9076-318FAB0CFFEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E3F1F-49E3-456A-AB4C-1DD483C1D8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,6 +457,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -8314,8 +8316,8 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R27" sqref="R27"/>
+      <pane ySplit="5" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X96" sqref="X96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -12022,7 +12024,7 @@
         <v>11.549200000000001</v>
       </c>
       <c r="N50" s="27">
-        <f t="shared" ref="N34:N57" si="11">11*M50-L50-F50</f>
+        <f t="shared" ref="N50:N51" si="11">11*M50-L50-F50</f>
         <v>80.788200000000003</v>
       </c>
       <c r="O50" s="30">
@@ -15457,7 +15459,7 @@
         <v>27.927399999999999</v>
       </c>
       <c r="N95" s="27">
-        <f t="shared" ref="N95:N106" si="19">11*M95-L95-F95</f>
+        <f t="shared" ref="N95" si="19">11*M95-L95-F95</f>
         <v>65.798399999999972</v>
       </c>
       <c r="O95" s="30">
